--- a/School App.xlsx
+++ b/School App.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCFA15A-3673-44A8-B7C2-8DBD630B4B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C53818-AF7C-447A-9986-7A6B8FCEE0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="3" r:id="rId1"/>
-    <sheet name="Courses_Wassce" sheetId="2" r:id="rId2"/>
-    <sheet name="Courses_ALevel" sheetId="6" r:id="rId3"/>
-    <sheet name="Courses_OLevel" sheetId="1" r:id="rId4"/>
+    <sheet name="Courses_ALevel" sheetId="6" r:id="rId2"/>
+    <sheet name="Courses_OLevel" sheetId="1" r:id="rId3"/>
+    <sheet name="Courses_Wassce" sheetId="2" r:id="rId4"/>
     <sheet name="W-Eng111" sheetId="4" r:id="rId5"/>
     <sheet name="W-CMat111" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="Courses_OLevel" localSheetId="2">Courses_ALevel!$A$1:$C$15</definedName>
+    <definedName name="Courses_OLevel" localSheetId="1">Courses_ALevel!$A$1:$C$15</definedName>
     <definedName name="Courses_OLevel">Courses_OLevel!$A$1:$C$16</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -542,24 +542,6 @@
   </si>
   <si>
     <t>Int. Science</t>
-  </si>
-  <si>
-    <t>Integers</t>
-  </si>
-  <si>
-    <t>An integer is a number that is not a fraction; a whole number.</t>
-  </si>
-  <si>
-    <t>Give two examples of integers</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>Out of the following which is not an integer?  2, 3, 4/5</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
 </sst>
 </file>
@@ -933,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F3537A-D7FD-4725-B4F6-1AC7C2661313}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1044,10 +1026,10 @@
       <c r="K2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1301,14 +1283,393 @@
   <hyperlinks>
     <hyperlink ref="J2" location="Courses_Wassce!A10" display="Core English" xr:uid="{3881007B-5663-4963-BAEB-CFDB77CB15AD}"/>
     <hyperlink ref="K2" location="Courses_Wassce!A5" display="Core Math" xr:uid="{550CB24D-C729-4A6C-B907-18E5C5E846A0}"/>
-    <hyperlink ref="L2" location="Courses_Wassce!A17" display="Social Studies" xr:uid="{B121513F-C327-4FA5-A5E1-28480B6FB0A1}"/>
-    <hyperlink ref="M2" location="Courses_Wassce!A14" display="Int. Science" xr:uid="{AB2E2D2C-82F0-44F7-BE53-EF540FF89AF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D52793-8E06-46E3-B5AF-034E057465B0}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820EDDAD-1788-4E70-B10C-D2F6E9291A24}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -1368,7 +1729,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
@@ -1516,389 +1877,7 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="A10" location="'W-Eng111'!A1" display="W-Eng111" xr:uid="{C1BBA24A-F895-43D9-9145-C6414EA4BDFB}"/>
-    <hyperlink ref="A5" location="'W-CMat111'!A1" display="W-CMat111" xr:uid="{3DCD4B7B-0519-4A89-80DF-6DF33808EAB5}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D52793-8E06-46E3-B5AF-034E057465B0}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1907,8 +1886,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0232C691-BA82-4D24-8FB9-4DF5A9E79847}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224AD6A5-6A00-4152-B2CF-A2B318B3C499}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1964,115 +2029,6 @@
       <c r="C2" t="s">
         <v>82</v>
       </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224AD6A5-6A00-4152-B2CF-A2B318B3C499}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45238</v>
-      </c>
-      <c r="C2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" t="s">
-        <v>176</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
